--- a/biology/Médecine/Raoul_Kourilsky/Raoul_Kourilsky.xlsx
+++ b/biology/Médecine/Raoul_Kourilsky/Raoul_Kourilsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raoul Georges Kourilsky [1], né le 19 juillet 1899 à Bombon (Seine-et-Marne) et mort le 22 septembre 1977 à Blandy-les-Tours[2], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raoul Georges Kourilsky , né le 19 juillet 1899 à Bombon (Seine-et-Marne) et mort le 22 septembre 1977 à Blandy-les-Tours, est un médecin français.
 Il est le père de plusieurs enfants, dont Marie-Thérèse Join-Lambert et Philippe Kourilsky.
 </t>
         </is>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études et formation
-Études secondaires au lycée Condorcet à Paris.
+          <t>Études et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Études secondaires au lycée Condorcet à Paris.
 Études supérieures à la Faculté de médecine de Paris
 Mobilisé en 1918, il rencontre X. Leclainche.
 En 1920, Externe des hôpitaux de Paris.
@@ -526,9 +543,43 @@
 En 1934, chef de laboratoire de recherches de la clinique de propédeutique.
 En 1936, médecin chef de service à l'hôpital Raymond Poincaré (Garches).
 En 1940, chef de service à l'hôpital Foch.
-En 1950, chef du service de pneumophtisiologie à l'hôpital Saint-Antoine.
-Enseignements et recherches
-En 1946, professeur agrégé
+En 1950, chef du service de pneumophtisiologie à l'hôpital Saint-Antoine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Raoul_Kourilsky</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raoul_Kourilsky</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Enseignements et recherches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1946, professeur agrégé
 En 1958, professeur de clinique médicale
 De 1948 à 1955 il est membre du conseil permanent d'Hygiène sociale.
 En 1951, il fonde le groupe de recherche en immuno-pathologies à l'hôpital Saint-Antoine et en devient directeur 1955.
@@ -540,40 +591,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Raoul_Kourilsky</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Raoul_Kourilsky</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Distinctions</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Membre de nombreuses sociétés savantes (dont l'académie de médecine et la société philomathique[3])
-Médaille interalliée (1918), médaille d'honneur des épidémies (1922)
-Croix de Guerre 1939-1940 (1941)
-Chevalier de la Légion d'honneur en 1947, officier en 1953[1].
-Officier de la santé publique en 1955.</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -595,10 +612,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Membre de nombreuses sociétés savantes (dont l'académie de médecine et la société philomathique)
+Médaille interalliée (1918), médaille d'honneur des épidémies (1922)
+Croix de Guerre 1939-1940 (1941)
+Chevalier de la Légion d'honneur en 1947, officier en 1953.
+Officier de la santé publique en 1955.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Raoul_Kourilsky</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raoul_Kourilsky</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Action dans son village de Blandy-les-Tours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ou pourquoi la rue Courte (Soupe) a été appelée Rue Kourilsky.
 Ce court récit ne se veut pas une reconstitution historique complète mais un résumé de ce jour-là.
